--- a/data/TC009.xlsx
+++ b/data/TC009.xlsx
@@ -44,7 +44,7 @@
     <t>ScreenError</t>
   </si>
   <si>
-    <t>Screen Render Error</t>
+    <t>Screen Render Error1</t>
   </si>
 </sst>
 </file>
